--- a/1. Projektplanung und Dokumentation/02_Sprint_Backlogs.xlsx
+++ b/1. Projektplanung und Dokumentation/02_Sprint_Backlogs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/jecklu01_hs-ulm_de/Documents/5. Semester/Software Projekt/RaytRazor/1. Projektplanung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luke/Desktop/RaytRazor/1. Projektplanung und Dokumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="566" documentId="11_AD4DB114E441178AC67DF4622615E776693EDF11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB3B883E-B29D-4128-AB41-25DB7BE6702E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F24D6A2-1799-8544-80EB-9400699821BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5190" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -414,10 +414,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,13 +685,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,14 +702,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
@@ -724,7 +720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>50</v>
       </c>
@@ -735,7 +731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>51</v>
       </c>
@@ -746,7 +742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>52</v>
       </c>
@@ -757,7 +753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>53</v>
       </c>
@@ -768,7 +764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>54</v>
       </c>
@@ -779,7 +775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>55</v>
       </c>
@@ -790,7 +786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>56</v>
       </c>
@@ -801,7 +797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
@@ -828,13 +824,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,14 +841,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -863,7 +859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -874,7 +870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -901,13 +897,13 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -918,14 +914,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -936,7 +932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
@@ -947,7 +943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
@@ -958,7 +954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
@@ -969,7 +965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
@@ -980,7 +976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -991,7 +987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
@@ -1002,7 +998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
@@ -1013,7 +1009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -1040,13 +1036,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,14 +1053,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -1075,7 +1071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1086,7 +1082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1097,7 +1093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -1108,7 +1104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1131,17 +1127,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBFE07D-6F37-46A6-BAD9-AC9F73001E51}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,14 +1148,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -1170,7 +1166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1181,7 +1177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1192,7 +1188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1203,7 +1199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1214,7 +1210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +1232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1247,7 +1243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1258,7 +1254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1269,7 +1265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1280,7 +1276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1291,7 +1287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1302,7 +1298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1313,7 +1309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1336,17 +1332,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9A0D6B-A634-407C-AD95-76C752B3D713}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,69 +1353,69 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -1430,7 +1426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -1441,62 +1437,62 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
+      <c r="B13" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
+      <c r="B14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1507,40 +1503,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
+      <c r="B16" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
+      <c r="B17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>9</v>
+      <c r="B18" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1551,7 +1547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1562,18 +1558,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>9</v>
+      <c r="B21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1584,7 +1580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1595,7 +1591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1606,7 +1602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
@@ -1617,7 +1613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -1628,7 +1624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
